--- a/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.8321596908975</v>
+        <v>89.86574060923758</v>
       </c>
       <c r="D2" t="n">
-        <v>1.362089188287418</v>
+        <v>1.456258548126107</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.27457733693853</v>
+        <v>88.74108713235762</v>
       </c>
       <c r="D3" t="n">
-        <v>1.200533415789109</v>
+        <v>1.395019064649534</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.94704086587704</v>
+        <v>88.45021438957284</v>
       </c>
       <c r="D4" t="n">
-        <v>1.335743545345342</v>
+        <v>1.373736773944278</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.83157831309076</v>
+        <v>86.88585817572083</v>
       </c>
       <c r="D5" t="n">
-        <v>1.520822096385874</v>
+        <v>1.471887075984835</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.72554285753296</v>
+        <v>85.9291054842794</v>
       </c>
       <c r="D6" t="n">
-        <v>1.64921417137519</v>
+        <v>1.466682414176153</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.99371610452063</v>
+        <v>84.93100148073017</v>
       </c>
       <c r="D7" t="n">
-        <v>1.513839399288204</v>
+        <v>1.390456705113463</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.12674715299903</v>
+        <v>83.66785738509714</v>
       </c>
       <c r="D8" t="n">
-        <v>1.631048056737408</v>
+        <v>1.774672827464413</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.81687176361319</v>
+        <v>83.00929894999359</v>
       </c>
       <c r="D9" t="n">
-        <v>1.580499551028979</v>
+        <v>1.816728283974077</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.87053501846249</v>
+        <v>81.82255055537694</v>
       </c>
       <c r="D10" t="n">
-        <v>1.545897610266074</v>
+        <v>1.413034059010786</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.8154581666937</v>
+        <v>81.13121696632767</v>
       </c>
       <c r="D11" t="n">
-        <v>1.647865814223522</v>
+        <v>1.74028300980589</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.61508953496102</v>
+        <v>79.91471861575822</v>
       </c>
       <c r="D12" t="n">
-        <v>1.799752334035482</v>
+        <v>1.789959975980379</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.72242757213641</v>
+        <v>79.26500551029496</v>
       </c>
       <c r="D13" t="n">
-        <v>1.670072586744787</v>
+        <v>1.634214097783283</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.81671328833117</v>
+        <v>77.68769487130835</v>
       </c>
       <c r="D14" t="n">
-        <v>1.912448951436315</v>
+        <v>1.717616165720961</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.82182420197081</v>
+        <v>76.92366450727742</v>
       </c>
       <c r="D15" t="n">
-        <v>1.759417266624607</v>
+        <v>1.822860374618879</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.81824383839748</v>
+        <v>76.02509131294133</v>
       </c>
       <c r="D16" t="n">
-        <v>1.944817495315621</v>
+        <v>1.588882504947747</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.8072915313392</v>
+        <v>74.94862054113217</v>
       </c>
       <c r="D17" t="n">
-        <v>1.785789351674374</v>
+        <v>2.027830277816707</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.95947212690999</v>
+        <v>74.021725461991</v>
       </c>
       <c r="D18" t="n">
-        <v>1.744670462020965</v>
+        <v>1.884700070303454</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.13126888974429</v>
+        <v>72.6188888589848</v>
       </c>
       <c r="D19" t="n">
-        <v>2.025327286355163</v>
+        <v>2.125566628624957</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.99647364339685</v>
+        <v>72.05552723099572</v>
       </c>
       <c r="D20" t="n">
-        <v>2.277063097175323</v>
+        <v>1.756917487068932</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.6272090145719</v>
+        <v>71.00042172584362</v>
       </c>
       <c r="D21" t="n">
-        <v>2.1668214594915</v>
+        <v>1.767448324528943</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.74686217692759</v>
+        <v>69.85224984145366</v>
       </c>
       <c r="D22" t="n">
-        <v>2.196689423410128</v>
+        <v>2.120679988046621</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.75363289716029</v>
+        <v>68.73241523294283</v>
       </c>
       <c r="D23" t="n">
-        <v>2.011380793695313</v>
+        <v>2.271354586959667</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.77752187668486</v>
+        <v>67.83968754897252</v>
       </c>
       <c r="D24" t="n">
-        <v>1.990676049796199</v>
+        <v>1.970488449274235</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.47720670753553</v>
+        <v>66.56783018791594</v>
       </c>
       <c r="D25" t="n">
-        <v>2.107396397099833</v>
+        <v>2.21910677301728</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.82830744910153</v>
+        <v>65.79086591766631</v>
       </c>
       <c r="D26" t="n">
-        <v>2.319858012180447</v>
+        <v>1.99658968464016</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.5135363538044</v>
+        <v>64.81825881554056</v>
       </c>
       <c r="D27" t="n">
-        <v>2.121089584814581</v>
+        <v>2.413337110940128</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.08563086886683</v>
+        <v>63.52189857224008</v>
       </c>
       <c r="D28" t="n">
-        <v>2.107131774745171</v>
+        <v>2.214027244763992</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.7103891330453</v>
+        <v>63.42898230828768</v>
       </c>
       <c r="D29" t="n">
-        <v>2.286135958085078</v>
+        <v>2.299799440042869</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.9844294909389</v>
+        <v>62.12056374923799</v>
       </c>
       <c r="D30" t="n">
-        <v>2.156605834132308</v>
+        <v>2.156530565200192</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.76019866426932</v>
+        <v>60.69333576739748</v>
       </c>
       <c r="D31" t="n">
-        <v>2.358263135543143</v>
+        <v>2.426482288283464</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.99650949369421</v>
+        <v>59.77070257453413</v>
       </c>
       <c r="D32" t="n">
-        <v>2.465956902343581</v>
+        <v>2.561971966570821</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.73237731389729</v>
+        <v>58.68562124588045</v>
       </c>
       <c r="D33" t="n">
-        <v>2.266337983591765</v>
+        <v>2.700965685336237</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.17336369121468</v>
+        <v>57.96451996754757</v>
       </c>
       <c r="D34" t="n">
-        <v>2.356350439441602</v>
+        <v>2.240328253791894</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.20490642656956</v>
+        <v>57.09474238145259</v>
       </c>
       <c r="D35" t="n">
-        <v>2.248477160292081</v>
+        <v>2.303778265838549</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.15195058519534</v>
+        <v>56.24830983120898</v>
       </c>
       <c r="D36" t="n">
-        <v>2.552393696582371</v>
+        <v>2.559926819868858</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.69021046592142</v>
+        <v>55.4240772842901</v>
       </c>
       <c r="D37" t="n">
-        <v>2.202112231873992</v>
+        <v>2.303906328731954</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.11288210749123</v>
+        <v>53.80683405058524</v>
       </c>
       <c r="D38" t="n">
-        <v>2.813041350122067</v>
+        <v>2.598202721751923</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.05474667152845</v>
+        <v>52.86165763292189</v>
       </c>
       <c r="D39" t="n">
-        <v>2.496946885623108</v>
+        <v>2.246987003406876</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.84197899034145</v>
+        <v>52.10236226194277</v>
       </c>
       <c r="D40" t="n">
-        <v>2.589906460967561</v>
+        <v>2.628890539297974</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.92394982149211</v>
+        <v>50.47851090400494</v>
       </c>
       <c r="D41" t="n">
-        <v>2.588691430488375</v>
+        <v>3.181522413982054</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.89217189516447</v>
+        <v>49.92294229187109</v>
       </c>
       <c r="D42" t="n">
-        <v>2.603984546783181</v>
+        <v>2.636869714694326</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.05855758680593</v>
+        <v>48.72241226583376</v>
       </c>
       <c r="D43" t="n">
-        <v>2.596243129724781</v>
+        <v>2.570243165128006</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.99803729452585</v>
+        <v>47.49301081610035</v>
       </c>
       <c r="D44" t="n">
-        <v>2.777516035625887</v>
+        <v>2.779792893092732</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.86094533267006</v>
+        <v>47.30362323251851</v>
       </c>
       <c r="D45" t="n">
-        <v>2.461792442483199</v>
+        <v>3.003998898453591</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.13314646345608</v>
+        <v>45.47522184971965</v>
       </c>
       <c r="D46" t="n">
-        <v>2.500827628309272</v>
+        <v>2.720677478724152</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.44795019887439</v>
+        <v>45.15119774035201</v>
       </c>
       <c r="D47" t="n">
-        <v>2.785505565298482</v>
+        <v>2.760224903877379</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.23977599454118</v>
+        <v>43.77960190946663</v>
       </c>
       <c r="D48" t="n">
-        <v>2.500027920202109</v>
+        <v>2.802425872504758</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.34229335343219</v>
+        <v>42.88193867825296</v>
       </c>
       <c r="D49" t="n">
-        <v>2.792146739352982</v>
+        <v>2.9032262976873</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.10640074651477</v>
+        <v>41.92707189315827</v>
       </c>
       <c r="D50" t="n">
-        <v>2.711667192649756</v>
+        <v>2.687250882318333</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.42619689347246</v>
+        <v>40.83751995313037</v>
       </c>
       <c r="D51" t="n">
-        <v>3.020427187556777</v>
+        <v>3.177229196957347</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.75391339089037</v>
+        <v>39.72129352050075</v>
       </c>
       <c r="D52" t="n">
-        <v>3.124792595567928</v>
+        <v>2.875461137433832</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.16806769814033</v>
+        <v>38.41053826876442</v>
       </c>
       <c r="D53" t="n">
-        <v>2.766906998120549</v>
+        <v>3.100485819538148</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.48565400838315</v>
+        <v>37.42452321607486</v>
       </c>
       <c r="D54" t="n">
-        <v>3.14843502908203</v>
+        <v>3.19441949162079</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.38844837570036</v>
+        <v>36.69137673590957</v>
       </c>
       <c r="D55" t="n">
-        <v>3.127414613002108</v>
+        <v>2.770033659306409</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.11065349556658</v>
+        <v>36.03181039410979</v>
       </c>
       <c r="D56" t="n">
-        <v>3.169030827471939</v>
+        <v>3.220386407926756</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.05070962516969</v>
+        <v>35.23929400254715</v>
       </c>
       <c r="D57" t="n">
-        <v>3.117870264914627</v>
+        <v>2.89010219676103</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.63579648941889</v>
+        <v>33.86516573502993</v>
       </c>
       <c r="D58" t="n">
-        <v>3.116667032409225</v>
+        <v>3.126058099469785</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.77055348526201</v>
+        <v>32.63293555516963</v>
       </c>
       <c r="D59" t="n">
-        <v>3.16027648324502</v>
+        <v>3.053676092287152</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.20508716334223</v>
+        <v>32.10732184788443</v>
       </c>
       <c r="D60" t="n">
-        <v>3.430485886063131</v>
+        <v>2.915762002112991</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.87631850945525</v>
+        <v>30.81524909011533</v>
       </c>
       <c r="D61" t="n">
-        <v>3.310256685914748</v>
+        <v>3.795271733598267</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.89087528409191</v>
+        <v>29.77396967496517</v>
       </c>
       <c r="D62" t="n">
-        <v>3.096404992143931</v>
+        <v>3.419860986876908</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.03778694402307</v>
+        <v>28.79579895690564</v>
       </c>
       <c r="D63" t="n">
-        <v>3.133927346506873</v>
+        <v>3.510023433594351</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.59546440435091</v>
+        <v>27.56290995768419</v>
       </c>
       <c r="D64" t="n">
-        <v>3.434593628878207</v>
+        <v>3.394799295059328</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.8855029030705</v>
+        <v>27.05038247596866</v>
       </c>
       <c r="D65" t="n">
-        <v>3.486585889959384</v>
+        <v>3.221696617914766</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.07321702155594</v>
+        <v>26.10601457682714</v>
       </c>
       <c r="D66" t="n">
-        <v>3.217324928068749</v>
+        <v>3.76652601987899</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.96388670811982</v>
+        <v>24.76713256978612</v>
       </c>
       <c r="D67" t="n">
-        <v>3.251370556488812</v>
+        <v>2.941342728736144</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.73458936309101</v>
+        <v>23.85285875230504</v>
       </c>
       <c r="D68" t="n">
-        <v>3.813550180955913</v>
+        <v>3.283455499812264</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.94370740277517</v>
+        <v>22.48414297165084</v>
       </c>
       <c r="D69" t="n">
-        <v>3.326440289239743</v>
+        <v>3.321300583104168</v>
       </c>
     </row>
   </sheetData>
